--- a/airport_petty_algorithms/carrier_register/Звіт Jet A-1.xlsx
+++ b/airport_petty_algorithms/carrier_register/Звіт Jet A-1.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disk_c\Desktop\Реєстри Серпень 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B6742A-676F-41B9-B32C-DC16ACCCBE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="qUzIN6w5HmNOYT6YtRGTEswz4O4A8Zo9Or1+XgFGKV+YoDCJwVCg94yJeNy+t5LmwSlrI4g7BGhJJ4saWqDFCQ==" workbookSaltValue="yCvOotfmDNP5V6okJu8pPw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838F5E39-E9DF-4824-A131-218CE1FA6B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="19980" windowHeight="10920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -48,9 +47,6 @@
     <t xml:space="preserve">      </t>
   </si>
   <si>
-    <t>по руху палива Jet A-1 ПАТ "Укртатнафта" в а/п Львів</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -120,7 +116,10 @@
     <t>Провідний інженер СПММ                    Балашов В.П.</t>
   </si>
   <si>
-    <t>Дата: 08.08.2021</t>
+    <t>по руху палива JEТA-1 ПАТ "Укртатнафта" в а/п Львів</t>
+  </si>
+  <si>
+    <t>Дата: 24.08.2021</t>
   </si>
 </sst>
 </file>
@@ -135,34 +134,34 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="16"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="26"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +177,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
@@ -208,56 +213,51 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -644,314 +644,313 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="38" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="69.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50" style="1" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="1024" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:9" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.45">
+      <c r="B4" s="5"/>
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="33" x14ac:dyDescent="0.45">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.45">
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.45">
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="4">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="6"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.45">
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="4"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9">
-        <v>4</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="8"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.45">
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
-        <v>5</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="6"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.45">
+      <c r="B10" s="6">
+        <v>6</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="4"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
-        <v>6</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.45">
+      <c r="B11" s="6">
+        <v>7</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
-        <v>7</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.45">
+      <c r="B12" s="6">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.45">
+      <c r="B13" s="6">
+        <v>9</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
-        <v>9</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.45">
+      <c r="B14" s="6">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7">
-        <v>10</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.45">
+      <c r="B15" s="6">
+        <v>11</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7">
-        <v>11</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.45">
+      <c r="B16" s="6">
+        <v>12</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7">
-        <v>12</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B17" s="8">
+        <v>13</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9">
-        <v>13</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="8">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B18" s="8">
+        <v>14</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="6">
-        <f>4711+711</f>
-        <v>5422</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9">
-        <v>14</v>
-      </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B19" s="6">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="6">
-        <v>8510</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7">
-        <v>15</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B20" s="6">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7">
-        <v>16</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B21" s="16"/>
+      <c r="C21" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14" t="s">
-        <v>21</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="11">
-        <f>E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19</f>
-        <v>14469</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
+        <f>SUM(E4:E20)</f>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B22" s="16"/>
       <c r="C22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B23" s="16"/>
+      <c r="C23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="11">
-        <v>29780</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="11">
+        <v>10109</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="2:5" ht="33" x14ac:dyDescent="0.2">
+      <c r="B26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="11">
-        <v>19955</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="G0ZqbmOeRSuSAUUrutIHsUXdl6vdDNycLYo0m/IvXiuhLvCZllIUHqaPK4lpOALodqqCPGNEqNzbUql26wBqFg==" saltValue="snq2F+UlOYwA3ru/PT6a6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H41uGY8cT3liP4nd0hZHRtf6CpJhmLptifjVVmiP/GMILinZd0gUbPuw5dDI0lY1Y3sq2DFOzHOyGKBfZ/WdWw==" saltValue="MXyfoaFFaqTyvqiQEgog6w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange sqref="E4:E24" name="РКЖП"/>
-    <protectedRange sqref="B3:E3" name="РКЖП2"/>
+    <protectedRange sqref="E4:E24" name="ДП2"/>
+    <protectedRange sqref="B3:E3" name="ДП1"/>
   </protectedRanges>
   <mergeCells count="26">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/airport_petty_algorithms/carrier_register/Звіт Jet A-1.xlsx
+++ b/airport_petty_algorithms/carrier_register/Звіт Jet A-1.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">по руху палива JEТA-1 ПАТ "Укртатнафта" в а/п Львів</t>
   </si>
   <si>
-    <t xml:space="preserve">Дата: 05.09.2021</t>
+    <t xml:space="preserve">Дата: 09.09.2021</t>
   </si>
   <si>
     <t xml:space="preserve">.</t>
@@ -235,7 +235,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -243,6 +243,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -263,11 +267,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -277,10 +281,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -367,17 +367,17 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.41"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="69.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="50"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -389,7 +389,7 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -400,246 +400,246 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="n">
-        <v>23276</v>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="n">
+        <v>18463</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5" t="n">
-        <v>6381</v>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="n">
+        <v>6720</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="G7" s="8"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="G8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="I9" s="9"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7" t="n">
-        <v>30292</v>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8" t="n">
+        <v>11986</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7" t="n">
-        <v>26268</v>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8" t="n">
+        <v>20222</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="10" t="n">
-        <v>86217</v>
+      <c r="D21" s="6"/>
+      <c r="E21" s="11" t="n">
+        <v>57391</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="11" t="n">
-        <v>61660</v>
+      <c r="D23" s="6"/>
+      <c r="E23" s="12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="10" t="n">
-        <v>57718</v>
+      <c r="D24" s="5"/>
+      <c r="E24" s="11" t="n">
+        <v>310083</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="H41uGY8cT3liP4nd0hZHRtf6CpJhmLptifjVVmiP/GMILinZd0gUbPuw5dDI0lY1Y3sq2DFOzHOyGKBfZ/WdWw==" saltValue="MXyfoaFFaqTyvqiQEgog6w==" spinCount="100000" sheet="true" objects="true" scenarios="true"/>
